--- a/kosu5k.xlsx
+++ b/kosu5k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D403A3D-B705-45FB-AD87-F6983AF70B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815E62DE-F991-4FDB-BD9E-CA76592CC844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{92D92126-9FC9-4CD1-A791-CC2E13579FDB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DATE</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>AVG. PACE</t>
+  </si>
+  <si>
+    <t>VO2MAX</t>
   </si>
 </sst>
 </file>
@@ -908,18 +911,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703E4664-F185-4EF0-B916-04848B3D9DEB}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,8 +933,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45848</v>
       </c>
@@ -940,8 +947,11 @@
       <c r="C2">
         <v>6.27</v>
       </c>
+      <c r="D2">
+        <v>38.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45886</v>
       </c>
@@ -951,8 +961,11 @@
       <c r="C3">
         <v>5.58</v>
       </c>
+      <c r="D3">
+        <v>39.299999999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45919</v>
       </c>
@@ -962,8 +975,11 @@
       <c r="C4">
         <v>5.58</v>
       </c>
+      <c r="D4">
+        <v>39.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45983</v>
       </c>
@@ -973,8 +989,11 @@
       <c r="C5">
         <v>5.46</v>
       </c>
+      <c r="D5">
+        <v>41.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45986</v>
       </c>
@@ -983,6 +1002,9 @@
       </c>
       <c r="C6">
         <v>5.45</v>
+      </c>
+      <c r="D6">
+        <v>42.4</v>
       </c>
     </row>
   </sheetData>
